--- a/BaseDeDatos/Exponential_metricas.xlsx
+++ b/BaseDeDatos/Exponential_metricas.xlsx
@@ -526,122 +526,54 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3315959616126453</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.625587932551578</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9961215579030441</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.6599689823068603</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.936191327935207</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9189551270463534</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9429084463320443</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9667477571824324</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.635135353981505</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9367512581389065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9512681699496145</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.3260187007043034</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.3527275336512969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.4654037043399473</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.7434383393778766</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.9421248152729887</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.4734158903672934</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.4859937556822533</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3301.393898197886</v>
-      </c>
-      <c r="C3" t="n">
-        <v>52.6717565969822</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.247966694751285</v>
-      </c>
-      <c r="E3" t="n">
-        <v>36.04759565295692</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.08531593125083</v>
-      </c>
-      <c r="G3" t="n">
-        <v>192.2434731473137</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.3392847725919009</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5956118656056512</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.160377911076685</v>
-      </c>
-      <c r="K3" t="n">
-        <v>90.43939581742701</v>
-      </c>
-      <c r="L3" t="n">
-        <v>148.5830120539222</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1458.085466797472</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1013.144169779423</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1384.430755328969</v>
-      </c>
-      <c r="P3" t="n">
-        <v>295.7118320996119</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3006.832920403172</v>
-      </c>
-      <c r="R3" t="n">
-        <v>260.3592134974379</v>
-      </c>
-      <c r="S3" t="n">
-        <v>221.4618644675527</v>
-      </c>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BaseDeDatos/Exponential_metricas.xlsx
+++ b/BaseDeDatos/Exponential_metricas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,31 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MASE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
